--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_Lineal_Estacionario_ARMA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>N_Calib_1</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Sí</t>
   </si>
 </sst>
 </file>
@@ -438,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.1274746831086422</v>
+        <v>0.1355019156032807</v>
       </c>
       <c r="D2">
-        <v>0.8985799744963299</v>
+        <v>0.8934472299012921</v>
       </c>
       <c r="E2">
         <v>0.9282261104261634</v>
@@ -464,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.2503131571189134</v>
+        <v>-0.2331079371900004</v>
       </c>
       <c r="D3">
-        <v>0.8023758066873019</v>
+        <v>0.8178327860174979</v>
       </c>
       <c r="E3">
         <v>0.9282261104261634</v>
@@ -490,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.3014862974499208</v>
+        <v>0.3315013205270076</v>
       </c>
       <c r="D4">
-        <v>0.7630810315306125</v>
+        <v>0.7434029926237158</v>
       </c>
       <c r="E4">
         <v>0.9282261104261634</v>
@@ -516,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>1.473110366213248</v>
+        <v>2.130116879079089</v>
       </c>
       <c r="D5">
-        <v>0.1409087156121738</v>
+        <v>0.04459022723629058</v>
       </c>
       <c r="E5">
         <v>0.9282261104261634</v>
@@ -528,7 +531,7 @@
         <v>0.8531623364799357</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>200</v>
@@ -542,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.397534633136813</v>
+        <v>-0.4026746049520101</v>
       </c>
       <c r="D6">
-        <v>0.6910237852374679</v>
+        <v>0.6910737157725855</v>
       </c>
       <c r="E6">
         <v>0.9201484195794589</v>
@@ -568,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.1160839771270377</v>
+        <v>0.1282869585720923</v>
       </c>
       <c r="D7">
-        <v>0.9075998694865519</v>
+        <v>0.8990873935755945</v>
       </c>
       <c r="E7">
         <v>0.9201484195794589</v>
@@ -594,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.388742223572029</v>
+        <v>1.574479472040786</v>
       </c>
       <c r="D8">
-        <v>0.1650953360567282</v>
+        <v>0.1296488090973209</v>
       </c>
       <c r="E8">
         <v>0.9201484195794589</v>
@@ -620,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.5555865273737473</v>
+        <v>0.7368350409708748</v>
       </c>
       <c r="D9">
-        <v>0.5785675625876618</v>
+        <v>0.4690082112456286</v>
       </c>
       <c r="E9">
         <v>0.9466928390133754</v>
@@ -646,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>1.625265216350609</v>
+        <v>1.324868432970911</v>
       </c>
       <c r="D10">
-        <v>0.1042937369599273</v>
+        <v>0.1988121911894549</v>
       </c>
       <c r="E10">
         <v>0.9466928390133754</v>
@@ -672,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>1.337922411850106</v>
+        <v>1.342920992703276</v>
       </c>
       <c r="D11">
-        <v>0.1811029071417392</v>
+        <v>0.1929894545432891</v>
       </c>
       <c r="E11">
         <v>0.9128639570760402</v>
